--- a/Data Files/Acheter une offre/dataTest-Offres.xlsx
+++ b/Data Files/Acheter une offre/dataTest-Offres.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>MORA 500</t>
   </si>
   <si>
-    <t>offre</t>
-  </si>
-  <si>
     <t>montant</t>
   </si>
   <si>
@@ -112,6 +109,120 @@
   </si>
   <si>
     <t>YELOW ONE</t>
+  </si>
+  <si>
+    <t>rangMenu</t>
+  </si>
+  <si>
+    <t>rangOffreNivII</t>
+  </si>
+  <si>
+    <t>rangOffreNivI</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>nomOffreConfirmationMvola</t>
+  </si>
+  <si>
+    <t>nomOffreAchatViaCredit</t>
+  </si>
+  <si>
+    <t>Mora500</t>
+  </si>
+  <si>
+    <t>Mora One</t>
+  </si>
+  <si>
+    <t>Mora Night</t>
+  </si>
+  <si>
+    <t>Mora Team</t>
+  </si>
+  <si>
+    <t>First Premium</t>
+  </si>
+  <si>
+    <t>First Prestige</t>
+  </si>
+  <si>
+    <t>First Royal</t>
+  </si>
+  <si>
+    <t>Mora+2000</t>
+  </si>
+  <si>
+    <t>Mora+5000</t>
+  </si>
+  <si>
+    <t>MoraInternational</t>
+  </si>
+  <si>
+    <t>First Premium+</t>
+  </si>
+  <si>
+    <t>YELOW 100</t>
+  </si>
+  <si>
+    <t>Yelow SMS</t>
+  </si>
+  <si>
+    <t>YelowFacebobaka</t>
+  </si>
+  <si>
+    <t>Yelow 1000</t>
+  </si>
+  <si>
+    <t>Yelow 200</t>
+  </si>
+  <si>
+    <t>YelowFacebobaka+</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>volumeData</t>
+  </si>
+  <si>
+    <t>350 Mo</t>
+  </si>
+  <si>
+    <t>800 Mo</t>
+  </si>
+  <si>
+    <t>2 Go</t>
+  </si>
+  <si>
+    <t>4 Go</t>
+  </si>
+  <si>
+    <t>12 Go</t>
+  </si>
+  <si>
+    <t>25 Go</t>
+  </si>
+  <si>
+    <t>50 Go</t>
+  </si>
+  <si>
+    <t>100 Go</t>
+  </si>
+  <si>
+    <t>groupeOffre</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>YELOW</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>TELMA NET</t>
   </si>
 </sst>
 </file>
@@ -147,9 +258,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,335 +553,809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.42578125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="F4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>2000</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>5000</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="H6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>5000</v>
+      </c>
+      <c r="H8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>10000</v>
+      </c>
+      <c r="H9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>15000</v>
+      </c>
+      <c r="H10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <v>30000</v>
+      </c>
+      <c r="H11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>50000</v>
+      </c>
+      <c r="H12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+      <c r="H16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>2000</v>
+      </c>
+      <c r="H18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>1000</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1000</v>
-      </c>
-      <c r="C3">
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>3000</v>
+      </c>
+      <c r="H21">
+        <v>70</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>5000</v>
+      </c>
+      <c r="H22">
+        <v>71</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>10000</v>
+      </c>
+      <c r="H23">
+        <v>73</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>15000</v>
+      </c>
+      <c r="H24">
+        <v>80</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>25000</v>
+      </c>
+      <c r="H25">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5000</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
+      <c r="I25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>75000</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>125000</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1000</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28">
+        <v>150000</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>10000</v>
-      </c>
-      <c r="C9">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>15000</v>
-      </c>
-      <c r="C10">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>30000</v>
-      </c>
-      <c r="C11">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>50000</v>
-      </c>
-      <c r="C12">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
+      <c r="D29" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>195000</v>
+      </c>
+      <c r="H29">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>500</v>
-      </c>
-      <c r="C15">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>1000</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1000</v>
-      </c>
-      <c r="C17">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-      <c r="C18">
+      <c r="I29" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>2000</v>
-      </c>
-      <c r="C19">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="C20">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>3000</v>
-      </c>
-      <c r="C21">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>10000</v>
-      </c>
-      <c r="C23">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>15000</v>
-      </c>
-      <c r="C24">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>25000</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>75000</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>125000</v>
-      </c>
-      <c r="C27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>150000</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>195000</v>
-      </c>
-      <c r="C29">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Acheter une offre/dataTest-Offres.xlsx
+++ b/Data Files/Acheter une offre/dataTest-Offres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
   <si>
     <t>MORA 500</t>
   </si>
@@ -223,6 +223,36 @@
   </si>
   <si>
     <t>TELMA NET</t>
+  </si>
+  <si>
+    <t>confirmationAchat</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>200 Mo</t>
+  </si>
+  <si>
+    <t>validite (j)</t>
+  </si>
+  <si>
+    <t>1,5 Go</t>
+  </si>
+  <si>
+    <t>250 Mo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YELOW FACEBOOBAKA ONE </t>
+  </si>
+  <si>
+    <t>700 Mo</t>
+  </si>
+  <si>
+    <t>40 Mo</t>
   </si>
 </sst>
 </file>
@@ -553,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,14 +594,15 @@
     <col min="1" max="1" width="7.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
     <col min="5" max="6" width="23.42578125" style="1" customWidth="1"/>
     <col min="7" max="8" width="17.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -602,8 +633,14 @@
       <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -628,8 +665,11 @@
       <c r="H2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -654,8 +694,11 @@
       <c r="H3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -680,8 +723,11 @@
       <c r="H4">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -706,8 +752,11 @@
       <c r="H5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -732,8 +781,11 @@
       <c r="H6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -758,8 +810,11 @@
       <c r="H7">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -784,8 +839,11 @@
       <c r="H8">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -810,8 +868,11 @@
       <c r="H9">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -836,8 +897,11 @@
       <c r="H10">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -862,8 +926,11 @@
       <c r="H11">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -888,8 +955,11 @@
       <c r="H12">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -914,8 +984,11 @@
       <c r="H13">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -940,8 +1013,11 @@
       <c r="H14">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -966,8 +1042,17 @@
       <c r="H15">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -992,8 +1077,11 @@
       <c r="H16">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1007,19 +1095,25 @@
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G17">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="H17">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1033,19 +1127,22 @@
         <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="H18">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1059,50 +1156,65 @@
         <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <v>2000</v>
+      </c>
+      <c r="H19">
+        <v>68</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>1000</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-      <c r="H20">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1111,22 +1223,25 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -1134,28 +1249,34 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H22">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1163,57 +1284,69 @@
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="H23">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="H24">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -1221,28 +1354,34 @@
         <v>3</v>
       </c>
       <c r="C25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="H25">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1250,28 +1389,34 @@
         <v>3</v>
       </c>
       <c r="C26" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="H26">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -1279,28 +1424,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <v>125000</v>
+        <v>75000</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -1308,28 +1459,34 @@
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28">
-        <v>150000</v>
+        <v>125000</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -1337,25 +1494,66 @@
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>150000</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>195000</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>15</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>62</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Acheter une offre/dataTest-Offres.xlsx
+++ b/Data Files/Acheter une offre/dataTest-Offres.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="60">
   <si>
     <t>MORA 500</t>
   </si>
@@ -123,63 +123,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>nomOffreConfirmationMvola</t>
-  </si>
-  <si>
-    <t>nomOffreAchatViaCredit</t>
-  </si>
-  <si>
-    <t>Mora500</t>
-  </si>
-  <si>
-    <t>Mora One</t>
-  </si>
-  <si>
-    <t>Mora Night</t>
-  </si>
-  <si>
-    <t>Mora Team</t>
-  </si>
-  <si>
-    <t>First Premium</t>
-  </si>
-  <si>
-    <t>First Prestige</t>
-  </si>
-  <si>
-    <t>First Royal</t>
-  </si>
-  <si>
-    <t>Mora+2000</t>
-  </si>
-  <si>
-    <t>Mora+5000</t>
-  </si>
-  <si>
-    <t>MoraInternational</t>
-  </si>
-  <si>
-    <t>First Premium+</t>
-  </si>
-  <si>
-    <t>YELOW 100</t>
-  </si>
-  <si>
-    <t>Yelow SMS</t>
-  </si>
-  <si>
-    <t>YelowFacebobaka</t>
-  </si>
-  <si>
-    <t>Yelow 1000</t>
-  </si>
-  <si>
-    <t>Yelow 200</t>
-  </si>
-  <si>
-    <t>YelowFacebobaka+</t>
-  </si>
-  <si>
     <t>Unité</t>
   </si>
   <si>
@@ -246,13 +189,16 @@
     <t>250 Mo</t>
   </si>
   <si>
-    <t xml:space="preserve">YELOW FACEBOOBAKA ONE </t>
-  </si>
-  <si>
     <t>700 Mo</t>
   </si>
   <si>
     <t>40 Mo</t>
+  </si>
+  <si>
+    <t>nomOffre</t>
+  </si>
+  <si>
+    <t>YELOW FACEBOOBAKA ONE</t>
   </si>
 </sst>
 </file>
@@ -583,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,14 +541,14 @@
     <col min="2" max="2" width="8.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.42578125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -613,34 +559,31 @@
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -651,25 +594,22 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
+      <c r="F2">
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>500</v>
-      </c>
-      <c r="H2">
         <v>20</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -680,25 +620,22 @@
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
+      <c r="F3">
+        <v>1000</v>
       </c>
       <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
         <v>21</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -709,25 +646,22 @@
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
+      <c r="F4">
+        <v>2000</v>
       </c>
       <c r="G4">
-        <v>2000</v>
-      </c>
-      <c r="H4">
         <v>32</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -738,25 +672,22 @@
         <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
+      <c r="F5">
+        <v>5000</v>
       </c>
       <c r="G5">
-        <v>5000</v>
-      </c>
-      <c r="H5">
         <v>35</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -767,25 +698,22 @@
         <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
+      <c r="F6">
+        <v>500</v>
       </c>
       <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6">
         <v>25</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -796,25 +724,22 @@
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
+      <c r="F7">
+        <v>1000</v>
       </c>
       <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
         <v>26</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -825,25 +750,22 @@
         <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
+      <c r="F8">
+        <v>5000</v>
       </c>
       <c r="G8">
-        <v>5000</v>
-      </c>
-      <c r="H8">
         <v>52</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -854,25 +776,22 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
+      <c r="F9">
+        <v>10000</v>
       </c>
       <c r="G9">
-        <v>10000</v>
-      </c>
-      <c r="H9">
         <v>91</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -883,25 +802,22 @@
         <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>46</v>
+      <c r="F10">
+        <v>15000</v>
       </c>
       <c r="G10">
-        <v>15000</v>
-      </c>
-      <c r="H10">
         <v>92</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -912,25 +828,22 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
+      <c r="F11">
+        <v>30000</v>
       </c>
       <c r="G11">
-        <v>30000</v>
-      </c>
-      <c r="H11">
         <v>93</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -941,25 +854,22 @@
         <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
+      <c r="F12">
+        <v>50000</v>
       </c>
       <c r="G12">
-        <v>50000</v>
-      </c>
-      <c r="H12">
         <v>95</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -970,25 +880,22 @@
         <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
+      <c r="F13">
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
         <v>67</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -999,25 +906,22 @@
         <v>33</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
+      <c r="F14">
+        <v>200</v>
       </c>
       <c r="G14">
-        <v>200</v>
-      </c>
-      <c r="H14">
         <v>62</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -1028,31 +932,28 @@
         <v>33</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>49</v>
+      <c r="F15">
+        <v>500</v>
       </c>
       <c r="G15">
-        <v>500</v>
-      </c>
-      <c r="H15">
         <v>65</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>3</v>
       </c>
@@ -1063,25 +964,22 @@
         <v>33</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
+      <c r="F16">
+        <v>1000</v>
       </c>
       <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
         <v>66</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>3</v>
       </c>
@@ -1092,28 +990,28 @@
         <v>33</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
       </c>
       <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
         <v>64</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17">
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1124,25 +1022,22 @@
         <v>33</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
+      <c r="F18">
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>200</v>
-      </c>
-      <c r="H18">
         <v>63</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1153,31 +1048,28 @@
         <v>33</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
+      <c r="F19">
+        <v>2000</v>
       </c>
       <c r="G19">
-        <v>2000</v>
-      </c>
-      <c r="H19">
         <v>68</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19">
+      <c r="H19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>3</v>
       </c>
@@ -1188,28 +1080,25 @@
         <v>33</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
+      <c r="F20">
+        <v>1000</v>
       </c>
       <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>4</v>
       </c>
@@ -1220,28 +1109,25 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
+      <c r="F21">
+        <v>100</v>
       </c>
       <c r="G21">
-        <v>100</v>
-      </c>
-      <c r="H21">
         <v>61</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -1252,31 +1138,28 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
+      <c r="F22">
+        <v>3000</v>
       </c>
       <c r="G22">
-        <v>3000</v>
-      </c>
-      <c r="H22">
         <v>70</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22">
+      <c r="H22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -1287,31 +1170,28 @@
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
+      <c r="F23">
+        <v>5000</v>
       </c>
       <c r="G23">
-        <v>5000</v>
-      </c>
-      <c r="H23">
         <v>71</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23">
+      <c r="H23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -1322,31 +1202,28 @@
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>22</v>
+      <c r="F24">
+        <v>10000</v>
       </c>
       <c r="G24">
-        <v>10000</v>
-      </c>
-      <c r="H24">
         <v>73</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L24">
+      <c r="H24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -1357,31 +1234,28 @@
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>23</v>
+      <c r="F25">
+        <v>15000</v>
       </c>
       <c r="G25">
-        <v>15000</v>
-      </c>
-      <c r="H25">
         <v>80</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25">
+      <c r="H25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1392,31 +1266,28 @@
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>24</v>
+      <c r="F26">
+        <v>25000</v>
       </c>
       <c r="G26">
-        <v>25000</v>
-      </c>
-      <c r="H26">
         <v>8</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26">
+      <c r="H26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>4</v>
       </c>
@@ -1427,31 +1298,28 @@
         <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
+      <c r="F27">
+        <v>75000</v>
       </c>
       <c r="G27">
-        <v>75000</v>
-      </c>
-      <c r="H27">
         <v>13</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27">
+      <c r="H27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K27">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>4</v>
       </c>
@@ -1462,31 +1330,28 @@
         <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>26</v>
+      <c r="F28">
+        <v>125000</v>
       </c>
       <c r="G28">
-        <v>125000</v>
-      </c>
-      <c r="H28">
         <v>17</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28">
+      <c r="H28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>4</v>
       </c>
@@ -1497,31 +1362,28 @@
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
+      <c r="F29">
+        <v>150000</v>
       </c>
       <c r="G29">
-        <v>150000</v>
-      </c>
-      <c r="H29">
         <v>19</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29">
+      <c r="H29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -1532,27 +1394,24 @@
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>28</v>
+      <c r="F30">
+        <v>195000</v>
       </c>
       <c r="G30">
-        <v>195000</v>
-      </c>
-      <c r="H30">
         <v>15</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30">
+      <c r="H30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
         <v>30</v>
       </c>
     </row>

--- a/Data Files/Acheter une offre/dataTest-Offres.xlsx
+++ b/Data Files/Acheter une offre/dataTest-Offres.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Acheter une offre/dataTest-Offres.xlsx
+++ b/Data Files/Acheter une offre/dataTest-Offres.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>51</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
